--- a/src/data/2023-qa.xlsx
+++ b/src/data/2023-qa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1542AA9-FF29-0444-84ED-0CFF9D59F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300CFAF-4E69-D541-B4CB-001EB5E4D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="員工進線紀錄表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">員工進線紀錄表!$A$1:$B$2984</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">員工進線紀錄表!$A$1:$B$2975</definedName>
     <definedName name="事業單位相關資訊服務">#REF!</definedName>
     <definedName name="人資暨行政總處相關服務">#REF!</definedName>
     <definedName name="公司一般資訊服務">#REF!</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="400">
   <si>
     <t>月</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -312,11 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hi 請問我公司郵件密碼好像忘記了  方便幫我重置密碼嗎?
-tp2107022 chenhuili</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>忘記公司的郵箱密碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -421,20 +416,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>您好 有同仁翁林嶸已通過試用期，但系統上無法使用個人假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不好意思 想請問現在緯軟園地app是否在維修中? 有同仁反映無法開啟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.您好 請問如果是國定假日的補班需配合客戶上班，那加班費算是*1.3嗎？
 2.不好意思~ 請問你們這邊有辦法協助同仁登入查看HRMS嗎?還是一樣要經過HR或IT?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不好意思，我們有同仁 賴柏宇 說他之前沒有拿到工作證，希望可以補寄給他~</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -846,13 +833,6 @@
   </si>
   <si>
     <t>哈囉！想請問是各組第一名都會有兩萬塊這樣嗎～還是是三組加在一起取20強呢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP2206066許立群已報名！
-以防萬一這邊也傳連結：
-https://joyparty.app.link/e/yN64XbhD2vb
-謝謝您！聖誕快樂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1207,10 +1187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>告白氣球 鄭凱隆TP2211039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不好意思 打擾了！
 有關年終算法要詢問誰</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1347,14 +1323,6 @@
   </si>
   <si>
     <t>請問春節加班有紅包嗎？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好我是新進員工
-員編 TP2301015
-公司內部系統有給新人預設密碼
-我改過了  不小心忘記了
-請問我該怎麼做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1416,19 +1384,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>林文卉1/2的加班單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好
-1/29 陳冠衡的加班單簽核時跳出錯誤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不好意思 想請問我們有同仁-翁林嶸說他們有收到生日禮券的email 不知道可否補寄給他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>您好，可以請問一下1月的薪資問題嗎？
 那個月份是產假，但我看薪資好像不足一個月份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1553,13 +1508,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈囉，請教一下。有同仁在詢問1/7, 2/4這類的補班日出勤彈性假，算在哪個年度？可使用區間是如何計算？就我所知，補班日出勤彈性假視同特休假，所以適用週年制？
-另該位同仁反映2/4的補班日出勤彈性假並未進入HRMS系統
-但我的已經進來了，他沒有
-他的工號是 TP1206009 李順吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我離職時還有13小時的休假沒有休完，請問大約什麼時候會折成現金匯款給我？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1641,12 +1589,6 @@
   <si>
     <t>請問婦女節活動 雲端照片連結是要提供哪種？
 Google的就可以嗎？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同仁李嘉偉詢問2/22這筆個人假因為填寫錯誤，已經請grace退完單，但現在要怎麼取消審批這張單子？
-可以請您這邊後台直接做取消嗎？
-因為個人假的時數目前凍結在這裡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1709,11 +1651,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有件事情想要反應一下，是有關HR系統申請加班這件事，以我自己的親身經歷來舉例：
-我是駐點在南山人壽E4大樓的，我2/24號晚上填加班，加到21:00打卡下班，南山的加班從18:30開始算，因爲18:00～18:30是南山吃飯休息的時間，所以我在南山申請的是18:30～21:00加班（共2.5小時），但在填緯創HR系統加班表單申請時，填了18:30～21:00被系統以「平日加班扣除半小時《休息時數》」為由，又被扣了半小時的時數， 然後又不能手動更改加班時數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你好 我想請問一下
 那個我在一月份請一月份的事假
 從1月1號到19號
@@ -1734,17 +1671,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>您好，本組同仁補班日出勤的彈性假匯入時數再度出錯。
-湯俊偉 TP2005019
-本年已補班日出勤三天，因此2022顯示的彈性假應有24小時，但他截圖卻是2022八小時，2023八小時，時數既少給8小時，年份也不對</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好，我們這位同仁的時數也不對，他是2022/9/14到職，時數應該都算在2022年才對，再麻煩通知IT更正，感謝
-高志杰 TP2209027</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>您好~我已經離職了，可是昨天卻發現我還有補休未休完時數9小時，先前還在職時上系統看是沒有這9小時的補休未休完時數，請問這9小時的補休是怎麽一回事？？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1766,11 +1692,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hi
-我的退保申請書 ， 我的出生日期有打錯，已寄信給甄霞。 不知道是否已經改好，謝謝!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>您好～想請教軟工小周末的課程
 若當日沒有時間即時線上直播參與課程
 之後會有連結能夠重看嘛
@@ -1785,10 +1706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你好 有一位同仁 李文中TP2009013 的彈性補假匯入少一天 可否幫忙確認呢? 謝謝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>想請問2/18號的補班日出勤時數 甚麼時候才會發到我們的帳號?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1831,17 +1748,6 @@
     <t>請問生日禮的電子禮卷，email自動刪除了
 我還沒用過
 怎麼辦？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好　同仁朮建平有在app上單3/13的請假，因為後來請假有修改，再請協助取消，不要上單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>請幫忙查詢同仁的2/4(六) 補班匯入狀況 (同仁說系統沒看到
-葉子寬TP2206058
-黃霈仁TP2208026
-謝謝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1968,10 +1874,6 @@
     <t>請問改密碼這封email是緯創發的嗎？
 如果是的話，連結進去的話網域要打什麼
 抱歉這賴沒辦法貼圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想幫一問駐點同仁問他今年過年+2月生日的禮券都沒有拿到；TP2211004　黃銘祥　（2022/11/07)來的，但FAQ沒有寫到適用期未通過會沒有禮券，想要請你們幫忙確認一下，謝謝喔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2010,10 +1912,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有一位同仁 TP2206047 王楷量 2023年的年假系統上尚未看到今年的時數 再請幫忙確認唷 謝謝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>請問 今年補頒的彈性假什麼時候會補進來呢？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2056,6 +1954,46 @@
   <si>
     <t>四月</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈囉，請教一下。有同仁在詢問1/7, 2/4這類的補班日出勤彈性假，算在哪個年度？可使用區間是如何計算？就我所知，補班日出勤彈性假視同特休假，所以適用週年制？
+另該位同仁反映2/4的補班日出勤彈性假並未進入HRMS系統
+但我的已經進來了，他沒有</t>
+  </si>
+  <si>
+    <t>2/22這筆個人假因為填寫錯誤，已經請grace退完單，但現在要怎麼取消審批這張單子？
+可以請您這邊後台直接做取消嗎？
+因為個人假的時數目前凍結在這裡</t>
+  </si>
+  <si>
+    <t>有件事情想要反應一下，是有關HR系統申請加班這件事，以我自己的親身經歷來舉例：
+我2/24號晚上填加班，加到21:00打卡下班，加班從18:30開始算，因爲18:00～18:30是吃飯休息的時間，所以我在申請的是18:30～21:00加班（共2.5小時），但在填緯創HR系統加班表單申請時，填了18:30～21:00被系統以「平日加班扣除半小時《休息時數》」為由，又被扣了半小時的時數， 然後又不能手動更改加班時數</t>
+  </si>
+  <si>
+    <t>您好，本組同仁補班日出勤的彈性假匯入時數再度出錯。本年已補班日出勤三天，因此2022顯示的彈性假應有24小時，但他截圖卻是2022八小時，2023八小時，時數既少給8小時，年份也不對</t>
+  </si>
+  <si>
+    <t>hi
+我的退保申請書 ， 我的出生日期有打錯，已寄信。 不知道是否已經改好，謝謝!!</t>
+  </si>
+  <si>
+    <t>您好，我們這位同仁的時數也不對，他是2022/9/14到職，時數應該都算在2022年才對，再麻煩通知IT更正，感謝</t>
+  </si>
+  <si>
+    <t>你好 有一位同仁 的彈性補假匯入少一天 可否幫忙確認呢? 謝謝</t>
+  </si>
+  <si>
+    <t>請幫忙查詢同仁的2/4(六) 補班匯入狀況 (同仁說系統沒看到
+謝謝</t>
+  </si>
+  <si>
+    <t>您好　有在app上單3/13的請假，因為後來請假有修改，再請協助取消，不要上單</t>
+  </si>
+  <si>
+    <t>我想幫一問駐點同仁問他今年過年+2月生日的禮券都沒有拿到，但FAQ沒有寫到適用期未通過會沒有禮券，想要請你們幫忙確認一下，謝謝喔</t>
+  </si>
+  <si>
+    <t>有一位同仁的年假系統上尚未看到今年的時數 再請幫忙確認唷 謝謝</t>
   </si>
 </sst>
 </file>
@@ -2467,16 +2405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2984"/>
+  <dimension ref="A1:B2975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="131.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" thickBot="1">
@@ -2487,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="68">
+    <row r="2" spans="1:2" ht="34">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2519,25 +2457,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="68">
+    <row r="7" spans="1:2" ht="34">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51">
+    <row r="8" spans="1:2" ht="34">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="51">
+    <row r="9" spans="1:2" ht="34">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34">
+    <row r="10" spans="1:2" ht="17">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>11</v>
@@ -2549,7 +2487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="68">
+    <row r="12" spans="1:2" ht="34">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -2573,7 +2511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51">
+    <row r="16" spans="1:2" ht="34">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>18</v>
@@ -2588,7 +2526,7 @@
     <row r="18" spans="1:2" ht="42" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34">
@@ -2597,13 +2535,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34">
+    <row r="20" spans="1:2" ht="17">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="136">
+    <row r="21" spans="1:2" ht="102">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>20</v>
@@ -2612,536 +2550,536 @@
     <row r="22" spans="1:2" ht="17">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="68">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="34">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="51">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="68">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="102">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="136">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="34">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="148.5" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="148.5" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="102">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="136">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="68">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="68">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="187">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="204">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="34">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="68">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="34">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="34">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="51">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17">
       <c r="A49" s="5"/>
       <c r="B49" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="34">
       <c r="A50" s="5"/>
       <c r="B50" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="5"/>
       <c r="B52" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="68">
       <c r="A53" s="5"/>
       <c r="B53" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="102">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="34">
       <c r="A54" s="5"/>
       <c r="B54" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="51">
       <c r="A55" s="5"/>
       <c r="B55" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="51">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17">
       <c r="A56" s="5"/>
       <c r="B56" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17">
       <c r="A57" s="5"/>
       <c r="B57" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="50.25" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="50.25" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="228.75" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="228.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="68">
       <c r="A61" s="5"/>
       <c r="B61" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="136">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="34">
       <c r="A62" s="5"/>
       <c r="B62" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17">
       <c r="A64" s="5"/>
       <c r="B64" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17">
       <c r="A65" s="5"/>
       <c r="B65" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17">
       <c r="A66" s="5"/>
       <c r="B66" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="51">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="102">
       <c r="A67" s="5"/>
       <c r="B67" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="34">
       <c r="A68" s="5"/>
       <c r="B68" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="170">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17">
       <c r="A69" s="5"/>
       <c r="B69" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17">
       <c r="A70" s="5"/>
       <c r="B70" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="34">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17">
       <c r="A72" s="5"/>
       <c r="B72" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="108" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17">
       <c r="A74" s="5"/>
       <c r="B74" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="108" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17">
       <c r="A75" s="5"/>
       <c r="B75" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="34">
       <c r="A76" s="5"/>
       <c r="B76" s="6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34">
       <c r="A77" s="5"/>
       <c r="B77" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="102">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17">
       <c r="A78" s="5"/>
       <c r="B78" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="51">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17">
       <c r="A79" s="5"/>
       <c r="B79" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17">
       <c r="A80" s="5"/>
       <c r="B80" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="34">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="34">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17">
       <c r="A82" s="5"/>
       <c r="B82" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="61.5" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="51">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="61.5" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="102">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="68">
       <c r="A86" s="5"/>
       <c r="B86" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="102">
       <c r="A87" s="5"/>
       <c r="B87" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="68">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17">
       <c r="A88" s="5"/>
       <c r="B88" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="153">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17">
       <c r="A89" s="5"/>
       <c r="B89" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="51">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17">
       <c r="A90" s="5"/>
       <c r="B90" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="68">
       <c r="A91" s="5"/>
       <c r="B91" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="68">
       <c r="A92" s="5"/>
       <c r="B92" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="34">
       <c r="A93" s="5"/>
       <c r="B93" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="102">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34">
       <c r="A94" s="5"/>
       <c r="B94" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="68">
+    <row r="95" spans="1:2" ht="17">
       <c r="A95" s="5"/>
       <c r="B95" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="34">
+    <row r="96" spans="1:2" ht="17">
       <c r="A96" s="5"/>
       <c r="B96" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="34">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17">
       <c r="A97" s="5"/>
       <c r="B97" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="51">
       <c r="A98" s="5"/>
       <c r="B98" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17">
       <c r="A99" s="5"/>
       <c r="B99" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17">
       <c r="A100" s="5"/>
       <c r="B100" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="85">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="34">
       <c r="A101" s="5"/>
       <c r="B101" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="34">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="35" thickBot="1">
       <c r="A102" s="5"/>
       <c r="B102" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="17">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19" thickBot="1">
+      <c r="A103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="34">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="B104" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="35" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="68">
       <c r="A105" s="5"/>
       <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19" thickBot="1">
-      <c r="A106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>1</v>
+    <row r="106" spans="1:2" ht="85">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="51">
-      <c r="A107" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="A107" s="5"/>
       <c r="B107" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="153">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17">
       <c r="A108" s="5"/>
       <c r="B108" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="102">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17">
       <c r="A109" s="5"/>
       <c r="B109" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="68">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17">
       <c r="A110" s="5"/>
       <c r="B110" s="6" t="s">
         <v>110</v>
@@ -3150,10 +3088,10 @@
     <row r="111" spans="1:2" ht="17">
       <c r="A111" s="5"/>
       <c r="B111" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="34">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17">
       <c r="A112" s="5"/>
       <c r="B112" s="6" t="s">
         <v>112</v>
@@ -3162,418 +3100,418 @@
     <row r="113" spans="1:2" ht="17">
       <c r="A113" s="5"/>
       <c r="B113" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="34">
       <c r="A114" s="5"/>
       <c r="B114" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="51">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17">
       <c r="A115" s="5"/>
       <c r="B115" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="51">
       <c r="A116" s="5"/>
       <c r="B116" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="34">
       <c r="A117" s="5"/>
       <c r="B117" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="51">
       <c r="A118" s="5"/>
       <c r="B118" s="6" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="51">
       <c r="A119" s="5"/>
       <c r="B119" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="34">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="17">
       <c r="A120" s="5"/>
       <c r="B120" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="85">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="51">
       <c r="A121" s="5"/>
       <c r="B121" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="51">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="34">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="34">
       <c r="A123" s="5"/>
       <c r="B123" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="68">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="52.5" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="51">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="17">
       <c r="A125" s="5"/>
       <c r="B125" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="51">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="41.25" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="52.5" customHeight="1">
+    <row r="127" spans="1:2" ht="17">
       <c r="A127" s="5"/>
       <c r="B127" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="17">
       <c r="A128" s="5"/>
       <c r="B128" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="41.25" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="34">
       <c r="A129" s="5"/>
       <c r="B129" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17">
       <c r="A130" s="5"/>
       <c r="B130" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="52.5" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="34">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="68">
       <c r="A132" s="5"/>
       <c r="B132" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="34">
       <c r="A133" s="5"/>
       <c r="B133" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="52.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17">
       <c r="A134" s="5"/>
       <c r="B134" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="68">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17">
       <c r="A135" s="5"/>
       <c r="B135" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="34">
+    <row r="136" spans="1:2" ht="17">
       <c r="A136" s="5"/>
       <c r="B136" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="75" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="84.75" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="86.25" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="75" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17">
       <c r="A140" s="5"/>
       <c r="B140" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="84.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="45.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="86.25" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="17">
       <c r="A142" s="5"/>
       <c r="B142" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17">
       <c r="A143" s="5"/>
       <c r="B143" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="45.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="17">
       <c r="A144" s="5"/>
       <c r="B144" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="34">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17">
       <c r="A145" s="5"/>
       <c r="B145" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17">
       <c r="A146" s="5"/>
       <c r="B146" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="34">
       <c r="A147" s="5"/>
       <c r="B147" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17">
       <c r="A148" s="5"/>
       <c r="B148" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17">
       <c r="A149" s="5"/>
       <c r="B149" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="51">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="136">
       <c r="A150" s="5"/>
       <c r="B150" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17">
       <c r="A151" s="5"/>
       <c r="B151" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17">
       <c r="A152" s="5"/>
       <c r="B152" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="187">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17">
       <c r="A153" s="5"/>
       <c r="B153" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17">
       <c r="A154" s="5"/>
       <c r="B154" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="59.25" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17">
       <c r="A156" s="5"/>
       <c r="B156" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="51">
       <c r="A157" s="5"/>
       <c r="B157" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="59.25" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="45" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="51">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="17">
       <c r="A159" s="5"/>
       <c r="B159" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="51">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="34">
       <c r="A160" s="5"/>
       <c r="B160" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="45" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="34">
       <c r="A161" s="5"/>
       <c r="B161" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="34">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="17">
       <c r="A162" s="5"/>
       <c r="B162" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="34">
+    <row r="163" spans="1:2" ht="153">
       <c r="A163" s="5"/>
       <c r="B163" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17">
       <c r="A164" s="5"/>
       <c r="B164" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="56.25" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="204">
+    <row r="166" spans="1:2" ht="17">
       <c r="A166" s="5"/>
       <c r="B166" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="51">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="34">
       <c r="A167" s="5"/>
       <c r="B167" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="56.25" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="34">
       <c r="A168" s="5"/>
       <c r="B168" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="34">
       <c r="A169" s="5"/>
       <c r="B169" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="51">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17">
       <c r="A170" s="5"/>
       <c r="B170" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="68">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="111" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="51">
       <c r="A172" s="5"/>
       <c r="B172" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="34">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="17">
       <c r="A173" s="5"/>
       <c r="B173" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="83.25" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="102">
       <c r="A174" s="5"/>
       <c r="B174" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="111" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="34">
       <c r="A175" s="5"/>
       <c r="B175" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="119">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="17">
       <c r="A176" s="5"/>
       <c r="B176" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="51">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17">
       <c r="A177" s="5"/>
       <c r="B177" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="187">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="34">
       <c r="A178" s="5"/>
       <c r="B178" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="51">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="17">
       <c r="A179" s="5"/>
       <c r="B179" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="34">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="17">
       <c r="A180" s="5"/>
       <c r="B180" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="17">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="102">
       <c r="A181" s="5"/>
       <c r="B181" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="34">
+    <row r="182" spans="1:2" ht="68">
       <c r="A182" s="5"/>
       <c r="B182" s="6" t="s">
         <v>183</v>
@@ -3597,539 +3535,543 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="68">
+    <row r="186" spans="1:2" ht="116.25" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="51">
+    <row r="187" spans="1:2" ht="17">
       <c r="A187" s="5"/>
       <c r="B187" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="34">
+    <row r="188" spans="1:2" ht="17">
       <c r="A188" s="5"/>
       <c r="B188" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="136">
+    <row r="189" spans="1:2" ht="409.6" thickBot="1">
       <c r="A189" s="5"/>
       <c r="B189" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="116.25" customHeight="1">
-      <c r="A190" s="5"/>
-      <c r="B190" s="6" t="s">
+    <row r="190" spans="1:2" ht="19" thickBot="1">
+      <c r="A190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="17">
+      <c r="A191" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="17">
-      <c r="A191" s="5"/>
-      <c r="B191" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17">
       <c r="A192" s="5"/>
       <c r="B192" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="409.6" thickBot="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="282" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="19" thickBot="1">
-      <c r="A194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>1</v>
+    <row r="194" spans="1:2" ht="17">
+      <c r="A194" s="5"/>
+      <c r="B194" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17">
-      <c r="A195" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="A195" s="5"/>
       <c r="B195" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17">
       <c r="A196" s="5"/>
       <c r="B196" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="282" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="51">
       <c r="A197" s="5"/>
       <c r="B197" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="17">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="51">
       <c r="A198" s="5"/>
       <c r="B198" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="17">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="34">
       <c r="A199" s="5"/>
       <c r="B199" s="6" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="34">
       <c r="A200" s="5"/>
       <c r="B200" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="51">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17">
       <c r="A201" s="5"/>
       <c r="B201" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="34">
       <c r="A202" s="5"/>
       <c r="B202" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="51">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="91.5" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="34">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="17">
       <c r="A204" s="5"/>
       <c r="B204" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="34">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="58.5" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="34">
+    <row r="206" spans="1:2" ht="68">
       <c r="A206" s="5"/>
       <c r="B206" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="91.5" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="17">
       <c r="A207" s="5"/>
       <c r="B207" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="34">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="17">
       <c r="A208" s="5"/>
       <c r="B208" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="58.5" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="34">
       <c r="A209" s="5"/>
       <c r="B209" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="102">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="34">
       <c r="A210" s="5"/>
       <c r="B210" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="34">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="85">
       <c r="A211" s="5"/>
       <c r="B211" s="6" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="17">
       <c r="A212" s="5"/>
       <c r="B212" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="34">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="77.25" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="34">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="17">
       <c r="A214" s="5"/>
       <c r="B214" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="102">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="51">
       <c r="A215" s="5"/>
       <c r="B215" s="6" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="34">
       <c r="A216" s="5"/>
       <c r="B216" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="77.25" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="17">
       <c r="A217" s="5"/>
       <c r="B217" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="17">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="119">
       <c r="A218" s="5"/>
       <c r="B218" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="34">
       <c r="A219" s="5"/>
       <c r="B219" s="6" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="34">
       <c r="A220" s="5"/>
       <c r="B220" s="6" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="34">
       <c r="A221" s="5"/>
       <c r="B221" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="119">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="43.5" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="51">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="17">
       <c r="A223" s="5"/>
       <c r="B223" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="34">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="51">
       <c r="A224" s="5"/>
       <c r="B224" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="34">
+    <row r="225" spans="1:2" ht="17">
       <c r="A225" s="5"/>
       <c r="B225" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="43.5" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="17">
       <c r="A226" s="5"/>
       <c r="B226" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="34">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="17">
       <c r="A227" s="5"/>
       <c r="B227" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="51">
+    <row r="228" spans="1:2" ht="34">
       <c r="A228" s="5"/>
       <c r="B228" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="34">
       <c r="A229" s="5"/>
       <c r="B229" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="51">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="34">
       <c r="A230" s="5"/>
       <c r="B230" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="34">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="17">
       <c r="A231" s="5"/>
       <c r="B231" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="51">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="34">
       <c r="A232" s="5"/>
       <c r="B232" s="6" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="34">
       <c r="A233" s="5"/>
       <c r="B233" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="51">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="17">
       <c r="A234" s="5"/>
       <c r="B234" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="17">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="68">
       <c r="A235" s="5"/>
       <c r="B235" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="34">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="17">
       <c r="A236" s="5"/>
       <c r="B236" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="34">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="17">
       <c r="A237" s="5"/>
       <c r="B237" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="17">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="34">
       <c r="A238" s="5"/>
       <c r="B238" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="68">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="34">
       <c r="A239" s="5"/>
       <c r="B239" s="6" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="51">
       <c r="A240" s="5"/>
       <c r="B240" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="17">
       <c r="A241" s="5"/>
       <c r="B241" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="51">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="34">
       <c r="A242" s="5"/>
       <c r="B242" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="34">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="17">
       <c r="A243" s="5"/>
       <c r="B243" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="68">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="17">
       <c r="A244" s="5"/>
       <c r="B244" s="6" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17">
       <c r="A245" s="5"/>
       <c r="B245" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="34">
       <c r="A246" s="5"/>
       <c r="B246" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="34">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="17">
       <c r="A247" s="5"/>
       <c r="B247" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="51">
       <c r="A248" s="5"/>
       <c r="B248" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17">
       <c r="A249" s="5"/>
       <c r="B249" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="51">
       <c r="A250" s="5"/>
       <c r="B250" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="34">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="17">
       <c r="A251" s="5"/>
       <c r="B251" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="34">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="17">
       <c r="A252" s="5"/>
       <c r="B252" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="68">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="17">
       <c r="A253" s="5"/>
       <c r="B253" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="17">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="51">
       <c r="A254" s="5"/>
       <c r="B254" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="51">
+    <row r="255" spans="1:2" ht="17">
       <c r="A255" s="5"/>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="17">
       <c r="A256" s="5"/>
       <c r="B256" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="51">
       <c r="A257" s="5"/>
       <c r="B257" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="17">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="68">
       <c r="A258" s="5"/>
       <c r="B258" s="6" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="17">
       <c r="A259" s="5"/>
       <c r="B259" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="68">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="17">
       <c r="A260" s="5"/>
       <c r="B260" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="17">
       <c r="A261" s="5"/>
       <c r="B261" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="17">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="34">
       <c r="A262" s="5"/>
       <c r="B262" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="68">
       <c r="A263" s="5"/>
       <c r="B263" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="102">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="51">
       <c r="A264" s="5"/>
       <c r="B264" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="360" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="34">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="17">
       <c r="A266" s="5"/>
       <c r="B266" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="34">
+    <row r="267" spans="1:2" ht="17">
       <c r="A267" s="5"/>
       <c r="B267" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="17">
       <c r="A268" s="5"/>
       <c r="B268" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="102">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="17">
       <c r="A269" s="5"/>
       <c r="B269" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="85">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="28.5" customHeight="1" thickBot="1">
       <c r="A270" s="5"/>
       <c r="B270" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="19" thickBot="1">
+      <c r="A271" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="34">
+      <c r="A272" s="5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" ht="360" customHeight="1">
-      <c r="A271" s="5"/>
-      <c r="B271" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="17">
-      <c r="A272" s="5"/>
       <c r="B272" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="34">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="17">
       <c r="A273" s="5"/>
       <c r="B273" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="17">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="68">
       <c r="A274" s="5"/>
       <c r="B274" s="6" t="s">
         <v>266</v>
@@ -4138,35 +4080,31 @@
     <row r="275" spans="1:2" ht="17">
       <c r="A275" s="5"/>
       <c r="B275" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="28.5" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="17">
       <c r="A276" s="5"/>
       <c r="B276" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="86" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="378" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="19" thickBot="1">
-      <c r="A278" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="51">
-      <c r="A279" s="5" t="s">
-        <v>294</v>
-      </c>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="160.5" customHeight="1">
+      <c r="A278" s="5"/>
+      <c r="B278" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="34">
+      <c r="A279" s="5"/>
       <c r="B279" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="34">
@@ -4175,16 +4113,16 @@
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="102">
+    <row r="281" spans="1:2" ht="68">
       <c r="A281" s="5"/>
       <c r="B281" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="51">
       <c r="A282" s="5"/>
       <c r="B282" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="34">
@@ -4193,148 +4131,148 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="34">
+    <row r="284" spans="1:2" ht="85">
       <c r="A284" s="5"/>
       <c r="B284" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="378" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="17">
       <c r="A285" s="5"/>
       <c r="B285" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="160.5" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="34">
       <c r="A286" s="5"/>
       <c r="B286" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="51">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="34">
       <c r="A287" s="5"/>
       <c r="B287" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="51">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="39.75" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="51">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="17">
       <c r="A289" s="5"/>
       <c r="B289" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="102">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="84.75" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="85">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="17">
       <c r="A291" s="5"/>
       <c r="B291" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="34">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="17">
       <c r="A292" s="5"/>
       <c r="B292" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="119">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="34">
       <c r="A293" s="5"/>
       <c r="B293" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17">
       <c r="A294" s="5"/>
       <c r="B294" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="68">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="17">
       <c r="A295" s="5"/>
       <c r="B295" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="51">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="17">
       <c r="A296" s="5"/>
       <c r="B296" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="39.75" customHeight="1">
+    <row r="297" spans="1:2" ht="159.75" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="17">
+    <row r="298" spans="1:2" ht="68">
       <c r="A298" s="5"/>
       <c r="B298" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="84.75" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="17">
       <c r="A299" s="5"/>
       <c r="B299" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="34">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="17">
       <c r="A300" s="5"/>
       <c r="B300" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="51">
       <c r="A301" s="5"/>
       <c r="B301" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="51">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="17">
       <c r="A302" s="5"/>
       <c r="B302" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="17">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="68">
       <c r="A303" s="5"/>
       <c r="B303" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="17">
+    <row r="304" spans="1:2" ht="34">
       <c r="A304" s="5"/>
       <c r="B304" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="17">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="34">
       <c r="A305" s="5"/>
       <c r="B305" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="159.75" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="17">
       <c r="A306" s="5"/>
       <c r="B306" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="85">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="67.5" customHeight="1">
       <c r="A307" s="5"/>
       <c r="B307" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="34">
@@ -4349,601 +4287,583 @@
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="153">
+    <row r="310" spans="1:2" ht="34">
       <c r="A310" s="5"/>
       <c r="B310" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="34">
+    <row r="311" spans="1:2" ht="51">
       <c r="A311" s="5"/>
       <c r="B311" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="85">
+    <row r="312" spans="1:2" ht="17">
       <c r="A312" s="5"/>
       <c r="B312" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="34">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="51">
       <c r="A313" s="5"/>
       <c r="B313" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="34">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="17">
       <c r="A314" s="5"/>
       <c r="B314" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="17">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="130.5" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="67.5" customHeight="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="34">
       <c r="A316" s="5"/>
       <c r="B316" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="34">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="17">
       <c r="A317" s="5"/>
       <c r="B317" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="51">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="49.5" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="34">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="51">
       <c r="A319" s="5"/>
       <c r="B319" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="51">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="85">
       <c r="A320" s="5"/>
       <c r="B320" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17">
       <c r="A321" s="5"/>
       <c r="B321" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="51">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="34">
       <c r="A322" s="5"/>
       <c r="B322" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="17">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="34">
       <c r="A323" s="5"/>
       <c r="B323" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="130.5" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="86" thickBot="1">
       <c r="A324" s="5"/>
       <c r="B324" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="34">
-      <c r="A325" s="5"/>
-      <c r="B325" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="34">
-      <c r="A326" s="5"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="19" thickBot="1">
+      <c r="A325" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="17">
+      <c r="A326" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="B326" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="49.5" customHeight="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="51">
       <c r="A327" s="5"/>
       <c r="B327" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="85">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="102">
       <c r="A328" s="5"/>
       <c r="B328" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="136">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="51">
       <c r="A329" s="5"/>
       <c r="B329" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="34">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="17">
       <c r="A330" s="5"/>
       <c r="B330" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="34">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="51">
       <c r="A331" s="5"/>
       <c r="B331" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="68">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="17">
       <c r="A332" s="5"/>
       <c r="B332" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="86" thickBot="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="51">
       <c r="A333" s="5"/>
       <c r="B333" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="19" thickBot="1">
-      <c r="A334" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="17">
-      <c r="A335" s="5" t="s">
-        <v>362</v>
-      </c>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="34">
+      <c r="A334" s="5"/>
+      <c r="B334" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="291" customHeight="1">
+      <c r="A335" s="5"/>
       <c r="B335" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="51">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="17">
       <c r="A336" s="5"/>
       <c r="B336" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="119">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="17">
       <c r="A337" s="5"/>
       <c r="B337" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="85">
       <c r="A338" s="5"/>
       <c r="B338" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="34">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="17">
       <c r="A339" s="5"/>
       <c r="B339" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="68">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="51">
       <c r="A340" s="5"/>
       <c r="B340" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="17">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="100.5" customHeight="1">
       <c r="A341" s="5"/>
       <c r="B341" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="68">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="34">
       <c r="A342" s="5"/>
       <c r="B342" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="51">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="17">
       <c r="A343" s="5"/>
       <c r="B343" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="291" customHeight="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="34">
       <c r="A344" s="5"/>
       <c r="B344" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="17">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="68">
       <c r="A345" s="5"/>
       <c r="B345" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="17">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="85">
       <c r="A346" s="5"/>
       <c r="B346" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="102">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="68">
       <c r="A347" s="5"/>
       <c r="B347" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17">
       <c r="A348" s="5"/>
       <c r="B348" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="102">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="17">
       <c r="A349" s="5"/>
       <c r="B349" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="100.5" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="51">
       <c r="A350" s="5"/>
       <c r="B350" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="68">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="17">
       <c r="A351" s="5"/>
       <c r="B351" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="68">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="48" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="68">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="34">
       <c r="A353" s="5"/>
       <c r="B353" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="136">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="17">
       <c r="A354" s="5"/>
       <c r="B354" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="85">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="51">
       <c r="A355" s="5"/>
       <c r="B355" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="68">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="17">
       <c r="A356" s="5"/>
       <c r="B356" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="51">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="17">
       <c r="A357" s="5"/>
       <c r="B357" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="34">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="147.75" customHeight="1">
       <c r="A358" s="5"/>
       <c r="B358" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="68">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="34">
       <c r="A359" s="5"/>
       <c r="B359" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="34">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="17">
       <c r="A360" s="5"/>
       <c r="B360" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="48" customHeight="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="17">
       <c r="A361" s="5"/>
       <c r="B361" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="85">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="170.25" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="34">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="17">
       <c r="A363" s="5"/>
       <c r="B363" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="51">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="68">
       <c r="A364" s="5"/>
       <c r="B364" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="51">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="17">
       <c r="A365" s="5"/>
       <c r="B365" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="34">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="17">
       <c r="A366" s="5"/>
       <c r="B366" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" ht="147.75" customHeight="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="85">
       <c r="A367" s="5"/>
       <c r="B367" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="51">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="17">
       <c r="A368" s="5"/>
       <c r="B368" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="17">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="47.25" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="34">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="51">
       <c r="A370" s="5"/>
       <c r="B370" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="170.25" customHeight="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="51">
       <c r="A371" s="5"/>
       <c r="B371" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="17">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="33" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="68">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="51">
       <c r="A373" s="5"/>
       <c r="B373" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="17">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="34">
       <c r="A374" s="5"/>
       <c r="B374" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="17">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="34">
       <c r="A375" s="5"/>
       <c r="B375" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="136">
+    <row r="376" spans="1:2" ht="17">
       <c r="A376" s="5"/>
       <c r="B376" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="34">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="17">
       <c r="A377" s="5"/>
       <c r="B377" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="47.25" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="34">
       <c r="A378" s="5"/>
       <c r="B378" s="6" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="102">
       <c r="A379" s="5"/>
       <c r="B379" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="68">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="34">
       <c r="A380" s="5"/>
       <c r="B380" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="33" customHeight="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="17">
       <c r="A381" s="5"/>
       <c r="B381" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="102">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="17">
       <c r="A382" s="5"/>
       <c r="B382" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="34">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="17">
       <c r="A383" s="5"/>
       <c r="B383" s="6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="51">
       <c r="A384" s="5"/>
       <c r="B384" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="85">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="193.5" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="17">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="34">
       <c r="A386" s="5"/>
       <c r="B386" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="51">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="17">
       <c r="A387" s="5"/>
       <c r="B387" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="102">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="34">
       <c r="A388" s="5"/>
       <c r="B388" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="51">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="119">
       <c r="A389" s="5"/>
       <c r="B389" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="34">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="17">
       <c r="A390" s="5"/>
       <c r="B390" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="51">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="17">
       <c r="A391" s="5"/>
       <c r="B391" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="34">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="52" thickBot="1">
       <c r="A392" s="5"/>
       <c r="B392" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="51">
-      <c r="A393" s="5"/>
-      <c r="B393" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="193.5" customHeight="1">
-      <c r="A394" s="5"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="19" thickBot="1">
+      <c r="A393" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="17">
+      <c r="A394" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="B394" s="6" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="51">
       <c r="A395" s="5"/>
       <c r="B395" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="51">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="17">
       <c r="A396" s="5"/>
       <c r="B396" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="34">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="51">
       <c r="A397" s="5"/>
       <c r="B397" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="136">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="34">
       <c r="A398" s="5"/>
       <c r="B398" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="51">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
       <c r="A399" s="5"/>
-      <c r="B399" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="34">
+      <c r="B399" s="6"/>
+    </row>
+    <row r="400" spans="1:2">
       <c r="A400" s="5"/>
-      <c r="B400" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="103" thickBot="1">
+      <c r="B400" s="6"/>
+    </row>
+    <row r="401" spans="1:2">
       <c r="A401" s="5"/>
-      <c r="B401" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="19" thickBot="1">
-      <c r="A402" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="17">
-      <c r="A403" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="51">
+      <c r="B401" s="6"/>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="5"/>
+      <c r="B402" s="6"/>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="5"/>
+      <c r="B403" s="6"/>
+    </row>
+    <row r="404" spans="1:2">
       <c r="A404" s="5"/>
-      <c r="B404" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="17">
+      <c r="B404" s="6"/>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" s="5"/>
-      <c r="B405" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="51">
+      <c r="B405" s="6"/>
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" s="5"/>
-      <c r="B406" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="68">
+      <c r="B406" s="6"/>
+    </row>
+    <row r="407" spans="1:2">
       <c r="A407" s="5"/>
-      <c r="B407" s="6" t="s">
-        <v>407</v>
-      </c>
+      <c r="B407" s="6"/>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="5"/>
@@ -15216,42 +15136,6 @@
     <row r="2975" spans="1:2">
       <c r="A2975" s="5"/>
       <c r="B2975" s="6"/>
-    </row>
-    <row r="2976" spans="1:2">
-      <c r="A2976" s="5"/>
-      <c r="B2976" s="6"/>
-    </row>
-    <row r="2977" spans="1:2">
-      <c r="A2977" s="5"/>
-      <c r="B2977" s="6"/>
-    </row>
-    <row r="2978" spans="1:2">
-      <c r="A2978" s="5"/>
-      <c r="B2978" s="6"/>
-    </row>
-    <row r="2979" spans="1:2">
-      <c r="A2979" s="5"/>
-      <c r="B2979" s="6"/>
-    </row>
-    <row r="2980" spans="1:2">
-      <c r="A2980" s="5"/>
-      <c r="B2980" s="6"/>
-    </row>
-    <row r="2981" spans="1:2">
-      <c r="A2981" s="5"/>
-      <c r="B2981" s="6"/>
-    </row>
-    <row r="2982" spans="1:2">
-      <c r="A2982" s="5"/>
-      <c r="B2982" s="6"/>
-    </row>
-    <row r="2983" spans="1:2">
-      <c r="A2983" s="5"/>
-      <c r="B2983" s="6"/>
-    </row>
-    <row r="2984" spans="1:2">
-      <c r="A2984" s="5"/>
-      <c r="B2984" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/data/2023-qa.xlsx
+++ b/src/data/2023-qa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AA154D-5E7D-EC41-8754-B90DB9B60AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040F38A3-D51E-604C-A6D2-1AEAEF9D4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>questions</t>
   </si>
@@ -50,9 +50,6 @@
     <t>公司有什麼福利嗎</t>
   </si>
   <si>
-    <t>公司有哪些合作廠商嗎</t>
-  </si>
-  <si>
     <t>我該怎麼訂便當</t>
   </si>
   <si>
@@ -62,17 +59,173 @@
     <t>請問公司地址</t>
   </si>
   <si>
-    <t>公司執行長是誰</t>
-  </si>
-  <si>
     <t>請問可以給我一些關於公司出差的補助說明嗎</t>
+  </si>
+  <si>
+    <t>我想知道公司團保的規定</t>
+  </si>
+  <si>
+    <t>我想知道公司執行長是誰</t>
+  </si>
+  <si>
+    <t>請提供離公司附近可以租房子的地點</t>
+  </si>
+  <si>
+    <t>我要找會議室預定系統？</t>
+  </si>
+  <si>
+    <t>我有一個假單還在“審批進行中”的狀態，要怎樣銷假呢？</t>
+  </si>
+  <si>
+    <t>怎麼申請特休？</t>
+  </si>
+  <si>
+    <t>怎麼申請喪假？</t>
+  </si>
+  <si>
+    <t>怎麼申請生育補助？</t>
+  </si>
+  <si>
+    <t>公司董事長是誰</t>
+  </si>
+  <si>
+    <t>要怎麼創一個社團？</t>
+  </si>
+  <si>
+    <t>公司有哪些社團？</t>
+  </si>
+  <si>
+    <t>緯創軟體有哪些據點</t>
+  </si>
+  <si>
+    <t>出差要怎麼申請旅費</t>
+  </si>
+  <si>
+    <t>出差旅費一天多少錢</t>
+  </si>
+  <si>
+    <t>公司有喪葬補助嗎</t>
+  </si>
+  <si>
+    <t>父母過世我可以請幾天喪假</t>
+  </si>
+  <si>
+    <t>我電腦有問題，請問我可以聯絡誰</t>
+  </si>
+  <si>
+    <t>我想要知道離職流程</t>
+  </si>
+  <si>
+    <t>HRMS網址</t>
+  </si>
+  <si>
+    <t>FAQ網址</t>
+  </si>
+  <si>
+    <t>公司有哪些福利廠商嗎</t>
+  </si>
+  <si>
+    <t>VPN要去哪裡下載</t>
+  </si>
+  <si>
+    <t>有提供教育訓練嗎？</t>
+  </si>
+  <si>
+    <t>請問怎麼申請WFH？</t>
+  </si>
+  <si>
+    <t>請問公司有沒有彈性工時</t>
+  </si>
+  <si>
+    <t>請問何時能申請更換設備</t>
+  </si>
+  <si>
+    <t>當我忘了帶員工證該如何進公司</t>
+  </si>
+  <si>
+    <t>門號月底到期，想辦理企客方案，要跟公司這邊辦理還是拿識別證去直營門市辦理呢？</t>
+  </si>
+  <si>
+    <t>你是誰</t>
+  </si>
+  <si>
+    <t>有提供午餐嗎</t>
+  </si>
+  <si>
+    <t>有提供教育訓練嗎</t>
+  </si>
+  <si>
+    <t>緯創軟體的客戶有哪些</t>
+  </si>
+  <si>
+    <t>我要查這個月薪資明細</t>
+  </si>
+  <si>
+    <t>被資遣怎麼辦</t>
+  </si>
+  <si>
+    <t>公司是否能處理內部投訴</t>
+  </si>
+  <si>
+    <t>緯創的汐科辦公室地址？</t>
+  </si>
+  <si>
+    <t>怎麼退便當</t>
+  </si>
+  <si>
+    <t>公司幾點開門</t>
+  </si>
+  <si>
+    <t>燈管不亮要找誰登記</t>
+  </si>
+  <si>
+    <t>怎麼申請車位？</t>
+  </si>
+  <si>
+    <t>按摩的時段是？</t>
+  </si>
+  <si>
+    <t>怎麼申請新電腦</t>
+  </si>
+  <si>
+    <t>怎麼樣寄收包裹？</t>
+  </si>
+  <si>
+    <t>沒有帶識別證怎麼辦？</t>
+  </si>
+  <si>
+    <t>公司電話？</t>
+  </si>
+  <si>
+    <t>怎麼設定公司印表機的連線</t>
+  </si>
+  <si>
+    <t>怎麼知道公司有哪些課程活動</t>
+  </si>
+  <si>
+    <t>公司成立幾年？</t>
+  </si>
+  <si>
+    <t>公司健檢的時間</t>
+  </si>
+  <si>
+    <t>怎麼預約按摩</t>
+  </si>
+  <si>
+    <t>公司部門的分布平面圖？</t>
+  </si>
+  <si>
+    <t>公司的逃生出口在哪</t>
+  </si>
+  <si>
+    <t>加班費怎麼申請</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +253,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF495057"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,7 +577,7 @@
   <dimension ref="A1:A385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A2" sqref="A2:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,38 +607,289 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="148.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="228.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="73" ht="108" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="124" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
